--- a/Datos/Anuario2024/120603_TratamientoResiduosSolidos.xlsx
+++ b/Datos/Anuario2024/120603_TratamientoResiduosSolidos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10125" tabRatio="748"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="37" r:id="rId1"/>
+    <sheet name="1" sheetId="74" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="51" r:id="rId3"/>
+    <sheet name="2" sheetId="42" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -57,97 +63,219 @@
     <definedName name="_R6_5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$C$22</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+  <si>
+    <t>Plásticos films</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Baterías</t>
+  </si>
+  <si>
+    <t>Chapajo</t>
+  </si>
+  <si>
+    <t>Botes férricos</t>
+  </si>
+  <si>
+    <t>Plásticos mixtos</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidrio </t>
+  </si>
+  <si>
+    <t>Papel y cartón</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Nota: Datos en toneladas. Residuos tratados en las plantas de tratamiento de residuos Los Hornillos y Manises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminio </t>
+  </si>
+  <si>
+    <t>Bioestabilizado</t>
+  </si>
+  <si>
+    <t>Residuos de aparatos eléctricos y electrónicos (RAEEs)</t>
+  </si>
+  <si>
+    <t>Polietileno de alta densidad (PEAD) botellas</t>
+  </si>
+  <si>
+    <t>Polietileno de alta densidad (PEAD) cajas</t>
+  </si>
+  <si>
+    <t>Polietileno tereftalato (PET)</t>
+  </si>
+  <si>
+    <t>Fuente: EMTRE (Entidad Metropolitana para el Tratamiento de Residuos).</t>
+  </si>
+  <si>
+    <t>2. Subproductos obtenidos del tratamiento de residuos sólidos en las plantas de tratamiento Los Hornillos y Manises. 2022</t>
+  </si>
+  <si>
+    <t>1. Residuos sólidos urbanos procedentes de València tratados según mes. 2022</t>
+  </si>
+  <si>
+    <t>TRATAMIENTO DE RESIDUOS URBANOS</t>
+  </si>
+  <si>
+    <t>Brik</t>
+  </si>
+  <si>
+    <t>Recipientes a presión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polipropileno </t>
+  </si>
+  <si>
+    <t>Material inerte</t>
+  </si>
+  <si>
+    <t>Restos afino valorizado</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -176,86 +304,87 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 6" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -325,12 +454,80 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5036820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="379095" y="169545"/>
+          <a:ext cx="5029200" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2174,596 +2371,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja65">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="45.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>TRATAMIENTO DE RESIDUOS URBANOS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja69">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="17.28515625" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>1. Residuos sólidos urbanos procedentes de València tratados según mes. 2022</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="29" t="n">
-        <v>272482.46</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29">
+        <v>272482.45999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
         <v>22599.26</v>
       </c>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="22" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>20971.6</v>
-      </c>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="12" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+      <c r="D5" s="15"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
+        <v>20971.599999999999</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
         <v>24822.66</v>
       </c>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="12" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="n">
+      <c r="D7" s="15"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
         <v>22262.18</v>
       </c>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="12" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
-        <v>24873.12</v>
-      </c>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="12" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
+      <c r="D8" s="15"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10">
+        <v>24873.119999999999</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14">
         <v>23278.22</v>
       </c>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="12" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="n">
+      <c r="D10" s="15"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
         <v>22338.3</v>
       </c>
-      <c r="D11" s="15" t="n"/>
-      <c r="E11" s="12" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="14" t="n">
-        <v>20302.56</v>
-      </c>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="12" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="n">
+      <c r="D11" s="15"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14">
+        <v>20302.560000000001</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10">
         <v>22218.1</v>
       </c>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="12" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="D13" s="15"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14">
         <v>22876.52</v>
       </c>
-      <c r="D14" s="15" t="n"/>
-      <c r="E14" s="12" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="n">
+      <c r="D14" s="15"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10">
         <v>22299.34</v>
       </c>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="12" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="14" t="n">
+      <c r="D15" s="15"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14">
         <v>23640.6</v>
       </c>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="12" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Nota: Datos en toneladas. Residuos tratados en las plantas de tratamiento de residuos Los Hornillos y Manises.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: EMTRE (Entidad Metropolitana para el Tratamiento de Residuos).</t>
-        </is>
+      <c r="D16" s="15"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja37">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="75.5703125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="2" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="2" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja73">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="46.28515625" customWidth="1" style="13" min="1" max="1"/>
-    <col width="13.7109375" customWidth="1" style="13" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="3" min="3" max="16384"/>
+    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>2. Subproductos obtenidos del tratamiento de residuos sólidos en las plantas de tratamiento Los Hornillos y Manises. 2022</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-    </row>
-    <row r="2" customFormat="1" s="13">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="13">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A4" s="23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="28" t="n">
+    <row r="1" spans="1:2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="28">
         <v>144342.94</v>
       </c>
     </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Botes férricos</t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="n">
-        <v>6285.059999999999</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A6" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aluminio </t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
-        <v>2194.3</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>Chapajo</t>
-        </is>
-      </c>
-      <c r="B7" s="26" t="n">
+    <row r="5" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>6285.0599999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2194.3000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26">
         <v>1442.96</v>
       </c>
     </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A8" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Metales </t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="n">
+    <row r="8" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="25">
         <v>189.14</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>Papel y cartón</t>
-        </is>
-      </c>
-      <c r="B9" s="26" t="n">
+    <row r="9" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="26">
         <v>11688.72</v>
       </c>
     </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>Brik</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
+    <row r="10" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25">
         <v>1263.3</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vidrio </t>
-        </is>
-      </c>
-      <c r="B11" s="26" t="n">
-        <v>10724.56</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A12" s="24" t="inlineStr">
-        <is>
-          <t>Polietileno de alta densidad (PEAD) botellas</t>
-        </is>
-      </c>
-      <c r="B12" s="27" t="n">
+    <row r="11" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10724.560000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="25">
         <v>1988.06</v>
       </c>
     </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A13" s="21" t="inlineStr">
-        <is>
-          <t>Polietileno de alta densidad (PEAD) cajas</t>
-        </is>
-      </c>
-      <c r="B13" s="26" t="n">
+    <row r="13" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="26">
         <v>302.62</v>
       </c>
     </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A14" s="24" t="inlineStr">
-        <is>
-          <t>Polietileno tereftalato (PET)</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
+    <row r="14" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="25">
         <v>8131.04</v>
       </c>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A15" s="21" t="inlineStr">
-        <is>
-          <t>Plásticos mixtos</t>
-        </is>
-      </c>
-      <c r="B15" s="26" t="n">
+    <row r="15" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26">
         <v>4104.08</v>
       </c>
     </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>Plásticos films</t>
-        </is>
-      </c>
-      <c r="B16" s="27" t="n">
+    <row r="16" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="25">
         <v>6287.74</v>
       </c>
     </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>Baterías</t>
-        </is>
-      </c>
-      <c r="B17" s="26" t="n">
+    <row r="17" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26">
         <v>24.9</v>
       </c>
     </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A18" s="24" t="inlineStr">
-        <is>
-          <t>Bioestabilizado</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="n">
+    <row r="18" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="27">
         <v>72500.66</v>
       </c>
     </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A19" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compost </t>
-        </is>
-      </c>
-      <c r="B19" s="26" t="n">
+    <row r="19" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="26">
         <v>13492.9</v>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>Residuos de aparatos eléctricos y electrónicos (RAEEs)</t>
-        </is>
-      </c>
-      <c r="B20" s="27" t="n">
+    <row r="20" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="25">
         <v>354.42</v>
       </c>
     </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A21" s="21" t="inlineStr">
-        <is>
-          <t>Madera</t>
-        </is>
-      </c>
-      <c r="B21" s="26" t="n">
+    <row r="21" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26">
         <v>691.62</v>
       </c>
     </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A22" s="24" t="inlineStr">
-        <is>
-          <t>Recipientes a presión</t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="n">
+    <row r="22" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="25">
         <v>10.78</v>
       </c>
     </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A23" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polipropileno </t>
-        </is>
-      </c>
-      <c r="B23" s="26" t="n">
+    <row r="23" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="26">
         <v>5.04</v>
       </c>
     </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A24" s="24" t="inlineStr">
-        <is>
-          <t>Material inerte</t>
-        </is>
-      </c>
-      <c r="B24" s="27" t="n">
+    <row r="24" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="25">
         <v>55.3</v>
       </c>
     </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="13">
-      <c r="A25" s="21" t="inlineStr">
-        <is>
-          <t>Restos afino valorizado</t>
-        </is>
-      </c>
-      <c r="B25" s="26" t="n">
-        <v>2605.74</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>Nota: Datos en toneladas. Residuos tratados en las plantas de tratamiento de residuos Los Hornillos y Manises.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: EMTRE (Entidad Metropolitana para el Tratamiento de Residuos).</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="17" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="17" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="19" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="19" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="18" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="18" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="18" t="n"/>
+    <row r="25" spans="1:2" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="26">
+        <v>2605.7399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="83" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>